--- a/acoes_selecionadas_portfolio.xlsx
+++ b/acoes_selecionadas_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,81 +459,142 @@
           <t>Rendimento_12m</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Proporcao</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSMG3</t>
+          <t>AURE3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.8</v>
+        <v>5.7</v>
       </c>
       <c r="C2" t="n">
-        <v>6.58</v>
+        <v>14.57</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>53.39</v>
+        <v>-15.43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIRR3</t>
+          <t>CSMG3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>17.8</v>
       </c>
       <c r="C3" t="n">
-        <v>9.56</v>
+        <v>6.58</v>
       </c>
       <c r="D3" t="n">
-        <v>8.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>68.7</v>
+        <v>53.39</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>POMO4</t>
+          <t>CMIN3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.9</v>
+        <v>39.4</v>
       </c>
       <c r="C4" t="n">
-        <v>8.859999999999999</v>
+        <v>6.84</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="E4" t="n">
-        <v>99.31</v>
+        <v>12.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>PETR3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>STBP3</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>14.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>20.7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>93.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
